--- a/task.xlsx
+++ b/task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\txk13\谷歌antigratity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\吴力\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2798A3C2-DB0A-405F-BBB7-A18624701342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063A679-AB33-49FF-8EE7-C6F5A6FB663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>内装質感アップ</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>测试包_01</t>
-  </si>
-  <si>
-    <t>C:\Users\txk13\Desktop\test_pack</t>
   </si>
   <si>
     <t>Top Text JP</t>
@@ -154,19 +151,7 @@
     <t>C:\Users\txk19\Desktop\pack</t>
   </si>
   <si>
-    <t>comfyui</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wp08.unicorn.org.cn:20126/?__theme=dark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Folder Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source Path</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,15 +195,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,11 +213,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -250,13 +225,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,29 +500,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="31.875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="31.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
@@ -563,211 +534,173 @@
         <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
       <c r="F2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
       <c r="F3" s="1">
         <v>100</v>
       </c>
-      <c r="G3" s="1">
-        <v>100</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
       <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="1">
-        <v>100</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
       <c r="F5" s="1">
-        <v>100</v>
-      </c>
-      <c r="G5" s="1">
         <v>60</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
       <c r="F6" s="1">
-        <v>100</v>
-      </c>
-      <c r="G6" s="1">
         <v>60</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
+      <c r="E7" s="1">
+        <v>100</v>
       </c>
       <c r="F7" s="1">
-        <v>100</v>
-      </c>
-      <c r="G7" s="1">
         <v>60</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
+      <c r="E8" s="1">
+        <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1">
         <v>60</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{3B36F52C-26AE-42A3-91A9-36FFF37914BC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>